--- a/config/journalCoupling.xlsx
+++ b/config/journalCoupling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schir\OneDrive\Studium\34_Github\PyPowerSim\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD1089-9FED-41C3-A9AB-0EF6CC86E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{64FD1089-9FED-41C3-A9AB-0EF6CC86E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B70548-4CAE-4A53-BC78-84589287B708}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="259">
   <si>
     <t>#</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Review for python implementation</t>
   </si>
   <si>
-    <t>19.03.2024</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>p.u.</t>
-  </si>
-  <si>
-    <t>config_Template</t>
   </si>
   <si>
     <t>Initial implementation of the config template</t>
@@ -780,6 +774,81 @@
   </si>
   <si>
     <t>0127</t>
+  </si>
+  <si>
+    <t>23.06.2024</t>
+  </si>
+  <si>
+    <t>v.1.0</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Color-Code</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>First complete template</t>
+  </si>
+  <si>
+    <t>Information (can be changed for personal notes and markup)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Input values</t>
+  </si>
+  <si>
+    <t>Variable names read by toolkit</t>
+  </si>
+  <si>
+    <t>journalCoupling</t>
+  </si>
+  <si>
+    <t>Input Filter</t>
+  </si>
+  <si>
+    <t>Filter Resistance</t>
+  </si>
+  <si>
+    <t>Filter Inductance</t>
+  </si>
+  <si>
+    <t>Filter Capacitance</t>
+  </si>
+  <si>
+    <t>Output Filter</t>
+  </si>
+  <si>
+    <t>Load Resistance</t>
+  </si>
+  <si>
+    <t>Load Inductance</t>
+  </si>
+  <si>
+    <t>Back EMF Mag</t>
+  </si>
+  <si>
+    <t>Back EMF Angle</t>
+  </si>
+  <si>
+    <t>Output Waveform</t>
+  </si>
+  <si>
+    <t>Output Frequency</t>
   </si>
 </sst>
 </file>
@@ -807,7 +876,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +901,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1148,11 +1241,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1162,9 +1335,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1175,33 +1345,18 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1217,15 +1372,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1247,22 +1393,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1578,29 +1784,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA655AC4-52E1-45C0-83AC-CC64B56C05A9}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.81640625" customWidth="1"/>
-    <col min="5" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1608,23 +1816,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -1643,8 +1852,13 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1655,7 +1869,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1663,8 +1877,17 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J14" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1683,23 +1906,69 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J15" s="44"/>
+      <c r="K15" t="s">
+        <v>240</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="J17" s="47"/>
+      <c r="K17" t="s">
+        <v>245</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>5</v>
       </c>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>241</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J13:L13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1710,161 +1979,161 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C17" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:6" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="E4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="23">
+        <v>500000</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="D6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="D7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="29">
-        <v>500000</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="E7" s="12">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="13">
-        <v>9.9999999999999998E-13</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>20</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>23</v>
+      <c r="F8" s="58" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1904,314 +2173,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86190CFD-1D2B-4FE4-A04E-A3C453840C86}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="18">
+        <v>4</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E4" s="28">
+        <v>25</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E5" s="28">
+        <v>25</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="11">
+        <v>500</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="11">
+        <v>50</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="11">
+        <v>101</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="11">
+        <v>600</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B14" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="37">
+      <c r="D14" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="28">
         <v>25</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="F14" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="31">
         <v>25</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="12">
-        <v>500</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="12">
-        <v>50</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="12">
-        <v>101</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12">
-        <v>600</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="37">
-        <v>25</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="40">
-        <v>25</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>30</v>
+      <c r="F15" s="58" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2237,277 +2506,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="48.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+    <row r="2" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="48" t="s">
+      <c r="D4" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="E4" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D5" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E5" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F7" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="13">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F10" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="32"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="32"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="32"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
+      <c r="D15" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="32"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D16" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>50</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>29</v>
+      <c r="F16" s="58" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2534,673 +2832,673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:6" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B4" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D4" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="F4" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B5" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D5" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="F5" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B6" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D6" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1050</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="F14" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1050</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="11">
+        <v>100</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="E22" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="F25" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="F26" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1050</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="F27" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="B16" s="35" t="s">
+      <c r="C32" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1050</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="12">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="24">
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="30">
-        <v>1</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="12">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="12">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="30">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>23</v>
+      <c r="F33" s="58" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/config/journalCoupling.xlsx
+++ b/config/journalCoupling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{64FD1089-9FED-41C3-A9AB-0EF6CC86E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4B70548-4CAE-4A53-BC78-84589287B708}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{64FD1089-9FED-41C3-A9AB-0EF6CC86E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69ACF79D-CA76-445B-BB91-DC9615A4B96D}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="4" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" activeTab="3" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -412,11 +412,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>(con): constant, 
-(sin): sinusoidal, 
-(tri): triangular</t>
-  </si>
-  <si>
     <t>0) output filter is deactivated, 
 1) output filter is activated</t>
   </si>
@@ -559,9 +554,6 @@
     <t>Ther</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
@@ -572,12 +564,6 @@
   </si>
   <si>
     <t>con</t>
-  </si>
-  <si>
-    <t>(FF): fundamental frequency, 
-(CB): carrier based, 
-(SV): space vector based, 
-(OPP): optimal pulse pattern</t>
   </si>
   <si>
     <t>(SE): single edge, 
@@ -849,6 +835,22 @@
   </si>
   <si>
     <t>Output Frequency</t>
+  </si>
+  <si>
+    <t>(FF): fundamental frequency, 
+(CB): carrier based, 
+(SV): space vector based, 
+(OPP): optimal pulse pattern,
+(OSM): optimal subcycle modulation</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>(con): constant, 
+(sin): sinusoidal, 
+(tri): triangular,
+(tar): trapezoidal</t>
   </si>
 </sst>
 </file>
@@ -1402,15 +1404,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1469,6 +1462,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1821,7 +1823,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1829,7 +1831,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1852,11 +1854,11 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
+      <c r="J13" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -1877,14 +1879,14 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>239</v>
+      <c r="J14" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1906,12 +1908,12 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="44"/>
+      <c r="J15" s="41"/>
       <c r="K15" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="45" t="s">
-        <v>241</v>
+        <v>237</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1919,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1933,36 +1935,36 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="43"/>
       <c r="K16" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="44"/>
       <c r="K17" t="s">
-        <v>245</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="L18" s="50" t="s">
-        <v>241</v>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2014,17 +2016,17 @@
       <c r="A2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2032,17 +2034,17 @@
       <c r="A3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="51" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2050,17 +2052,17 @@
       <c r="A4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="52" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2068,17 +2070,17 @@
       <c r="A5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="53" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="23">
         <v>500000</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2086,17 +2088,17 @@
       <c r="A6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="51" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2104,17 +2106,17 @@
       <c r="A7" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="12">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2122,17 +2124,17 @@
       <c r="A8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="15">
         <v>20</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2207,19 +2209,19 @@
       <c r="A2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="53" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="18">
         <v>4</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2227,19 +2229,19 @@
       <c r="A3" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="51" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="11">
         <v>20</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="54" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2247,19 +2249,19 @@
       <c r="A4" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="51" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="28">
         <v>25</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="54" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2267,19 +2269,19 @@
       <c r="A5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="28">
         <v>25</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="54" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2287,19 +2289,19 @@
       <c r="A6" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="51" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="11">
         <v>1000</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="54" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2307,19 +2309,19 @@
       <c r="A7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="51" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="11">
         <v>500</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="54" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2327,19 +2329,19 @@
       <c r="A8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="51" t="s">
         <v>63</v>
       </c>
       <c r="E8" s="11">
         <v>50</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="54" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2347,19 +2349,19 @@
       <c r="A9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="51" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="11">
         <v>101</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="54" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2367,19 +2369,19 @@
       <c r="A10" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="51" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="29">
         <v>1</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="54" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2387,19 +2389,19 @@
       <c r="A11" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="51" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="11">
         <v>600</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="54" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2407,19 +2409,19 @@
       <c r="A12" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="52" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="24">
         <v>0</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="55" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2427,19 +2429,19 @@
       <c r="A13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="50" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="53" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="30">
         <v>0.5</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="56" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2447,19 +2449,19 @@
       <c r="A14" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="48" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="51" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="28">
         <v>25</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="54" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2467,19 +2469,19 @@
       <c r="A15" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="52" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="31">
         <v>25</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="55" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2506,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799FBFCB-8244-4B83-8CC9-EBD2890613E5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,272 +2541,272 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="60"/>
+      <c r="A2" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="57"/>
       <c r="C2" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="58" t="s">
         <v>96</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="53"/>
+      <c r="A3" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="50"/>
       <c r="C3" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="53" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="18">
         <v>0</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="48"/>
       <c r="C4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="51" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="11">
         <v>0.2</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="51"/>
+      <c r="A5" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="48"/>
       <c r="C5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>101</v>
       </c>
       <c r="E5" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="54" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="51"/>
+      <c r="A6" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="48"/>
       <c r="C6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="51" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="54" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="51"/>
+      <c r="A7" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="48"/>
       <c r="C7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="51"/>
+      <c r="A8" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="51"/>
+      <c r="A9" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="48"/>
       <c r="C9" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="54" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="A10" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="48"/>
       <c r="C10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="12">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="54" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="51"/>
+      <c r="A11" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="48"/>
       <c r="C11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>107</v>
       </c>
       <c r="E11" s="12">
         <v>0.5</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" s="51"/>
+      <c r="A12" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="48"/>
       <c r="C12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="12">
         <v>2.7499999999999998E-3</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="54" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="51"/>
+      <c r="A13" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="48"/>
       <c r="C13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="51"/>
+      <c r="A14" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="48"/>
       <c r="C14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="51"/>
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="48"/>
       <c r="C15" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>111</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="52"/>
+      <c r="A16" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="49"/>
       <c r="C16" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="15">
         <v>50</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2821,7 +2823,7 @@
       <formula2>10000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{57DF397D-0405-4640-86A0-348060BC68E3}">
-      <formula1>"con, sin, tri"</formula1>
+      <formula1>"con, sin, tri, tra"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2832,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245B3F0A-B85A-4162-A12D-AC7176B54015}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2863,143 +2865,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>142</v>
+        <v>203</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>133</v>
+        <v>173</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>142</v>
+        <v>205</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>134</v>
+        <v>174</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>142</v>
+        <v>206</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>142</v>
+        <v>207</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>135</v>
+        <v>177</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>142</v>
+        <v>208</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>136</v>
+        <v>176</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="54" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3007,477 +3009,477 @@
       <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>142</v>
+      <c r="B9" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>137</v>
+        <v>178</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>136</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>142</v>
+        <v>209</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>138</v>
+        <v>179</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
-      <c r="B11" s="68" t="s">
-        <v>142</v>
+      <c r="B11" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>139</v>
+        <v>180</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="E11" s="11">
         <v>0</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>142</v>
+        <v>210</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="51" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="11">
         <v>1050</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>142</v>
+        <v>211</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>141</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>142</v>
+        <v>212</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>141</v>
+        <v>183</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>140</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>166</v>
+        <v>213</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>165</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>166</v>
+        <v>214</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>160</v>
+        <v>185</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>159</v>
       </c>
       <c r="E16" s="11">
-        <v>1050</v>
-      </c>
-      <c r="F16" s="57" t="s">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>166</v>
+        <v>215</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>161</v>
+        <v>186</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>160</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>166</v>
+        <v>216</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>162</v>
+        <v>187</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="E18" s="11">
         <v>100</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>166</v>
+        <v>217</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>163</v>
+        <v>188</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>166</v>
+        <v>218</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>165</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>164</v>
+        <v>189</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>163</v>
       </c>
       <c r="E20" s="11">
         <v>0.1</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>166</v>
+        <v>219</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>165</v>
+        <v>190</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="E21" s="24">
         <v>1</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="55" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>167</v>
+        <v>220</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>166</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>148</v>
+        <v>191</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>147</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="56" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>167</v>
+        <v>221</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>149</v>
+        <v>192</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>167</v>
+        <v>222</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>150</v>
+        <v>193</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>167</v>
+        <v>224</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>151</v>
+        <v>194</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>150</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>167</v>
+        <v>225</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>152</v>
+        <v>195</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="E26" s="11">
         <v>1</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>167</v>
+        <v>226</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>153</v>
+        <v>196</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>167</v>
+        <v>227</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>154</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>167</v>
+        <v>223</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>155</v>
+        <v>197</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>154</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>167</v>
+        <v>228</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>166</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>156</v>
+        <v>198</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>155</v>
       </c>
       <c r="E30" s="11">
         <v>1</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>167</v>
+        <v>229</v>
+      </c>
+      <c r="B31" s="66" t="s">
+        <v>166</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>157</v>
+        <v>199</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="E31" s="24">
         <v>1</v>
       </c>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>168</v>
+        <v>157</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>167</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>158</v>
+        <v>200</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>157</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="56" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3485,26 +3487,26 @@
       <c r="A33" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="69" t="s">
-        <v>168</v>
+      <c r="B33" s="66" t="s">
+        <v>167</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>159</v>
+        <v>201</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="E33" s="24">
         <v>1</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="55" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{C4E97F42-90A4-439F-B50C-11CF79F6F56D}">
-      <formula1>"FF, CB, SV, OPP"</formula1>
+      <formula1>"FF, CB, SV, OPP, OSM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{59C00FD6-B4B9-40ED-B5DF-7556515D16B9}">
       <formula1>"SE, DE"</formula1>
@@ -3515,7 +3517,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{9D931B16-8DBB-4320-9C50-FA16D061031E}">
       <formula1>"RE, FE, SM, AM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9 E10 E11 E25 E32" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E9:E11 E25 E32" xr:uid="{7BE6246F-D0E4-4835-A57D-61D617CCED04}">
       <formula1>"0, 1"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13" xr:uid="{7673DE90-8C38-46FF-9FB4-B656D095FE62}">
